--- a/data/VGPs_NAM/28.xlsx
+++ b/data/VGPs_NAM/28.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>Study level data</t>
   </si>
@@ -101,6 +101,9 @@
     <t>Q</t>
   </si>
   <si>
+    <t>kept_by_auth</t>
+  </si>
+  <si>
     <t>ref</t>
   </si>
   <si>
@@ -138,9 +141,6 @@
   </si>
   <si>
     <t>VGP_lon</t>
-  </si>
-  <si>
-    <t>kept_by_auth</t>
   </si>
   <si>
     <t>normal</t>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -253,7 +253,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -296,9 +296,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -625,15 +622,17 @@
       <c r="U2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="5" t="s">
+      <c r="V2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="X2" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="Y2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -643,7 +642,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="9">
         <v>55.9</v>
@@ -684,18 +683,18 @@
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U3" s="13">
         <v>3.0</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="5"/>
@@ -737,14 +736,14 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -781,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>5</v>
@@ -793,13 +792,13 @@
         <v>7</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>11</v>
@@ -835,16 +834,16 @@
         <v>21</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -898,14 +897,14 @@
         <v>36</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U7" s="13"/>
-      <c r="V7" s="23" t="s">
+      <c r="V7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>38</v>
@@ -962,14 +961,14 @@
         <v>36</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X8" s="13" t="s">
         <v>38</v>
@@ -1026,14 +1025,14 @@
         <v>36</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X9" s="13" t="s">
         <v>38</v>
@@ -1090,14 +1089,14 @@
         <v>36</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X10" s="13" t="s">
         <v>38</v>
@@ -1154,14 +1153,14 @@
         <v>36</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X11" s="13" t="s">
         <v>38</v>
@@ -1218,14 +1217,14 @@
         <v>36</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X12" s="13" t="s">
         <v>38</v>
@@ -1282,14 +1281,14 @@
         <v>36</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X13" s="13" t="s">
         <v>38</v>
@@ -1346,14 +1345,14 @@
         <v>36</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X14" s="13" t="s">
         <v>38</v>
@@ -1410,14 +1409,14 @@
         <v>36</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X15" s="13" t="s">
         <v>38</v>
@@ -1474,14 +1473,14 @@
         <v>36</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X16" s="13" t="s">
         <v>38</v>
@@ -1509,7 +1508,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="24"/>
+      <c r="P17" s="23"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1534,14 +1533,14 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="25"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="24"/>
+      <c r="P18" s="23"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1573,7 +1572,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="24"/>
+      <c r="P19" s="23"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1637,7 +1636,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="24"/>
+      <c r="P21" s="23"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1669,7 +1668,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="24"/>
+      <c r="P22" s="23"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1733,7 +1732,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="24"/>
+      <c r="P24" s="23"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1765,7 +1764,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="24"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1797,7 +1796,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="24"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1829,7 +1828,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="24"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -1861,7 +1860,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="24"/>
+      <c r="P28" s="23"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -1893,7 +1892,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="24"/>
+      <c r="P29" s="23"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -1925,7 +1924,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="24"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -2149,7 +2148,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="24"/>
+      <c r="P37" s="23"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -2181,7 +2180,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="24"/>
+      <c r="P38" s="23"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2213,7 +2212,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="24"/>
+      <c r="P39" s="23"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -2245,7 +2244,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="24"/>
+      <c r="P40" s="23"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2277,7 +2276,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="24"/>
+      <c r="P41" s="23"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -2309,7 +2308,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="24"/>
+      <c r="P42" s="23"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -2341,7 +2340,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="24"/>
+      <c r="P43" s="23"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -2373,7 +2372,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="24"/>
+      <c r="P44" s="23"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2405,7 +2404,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="24"/>
+      <c r="P45" s="23"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -2437,7 +2436,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="24"/>
+      <c r="P46" s="23"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -2469,7 +2468,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="24"/>
+      <c r="P47" s="23"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2501,7 +2500,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="24"/>
+      <c r="P48" s="23"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2533,7 +2532,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="24"/>
+      <c r="P49" s="23"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -2565,7 +2564,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="24"/>
+      <c r="P50" s="23"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -2597,7 +2596,7 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="24"/>
+      <c r="P51" s="23"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -2629,7 +2628,7 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="24"/>
+      <c r="P52" s="23"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -2661,7 +2660,7 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="24"/>
+      <c r="P53" s="23"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
@@ -2693,7 +2692,7 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="24"/>
+      <c r="P54" s="23"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -2725,7 +2724,7 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="24"/>
+      <c r="P55" s="23"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
